--- a/Yatra/testdata/tdataexcel.xlsx
+++ b/Yatra/testdata/tdataexcel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Automation\python-automation\Yatra\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D839E9D-5C7E-4913-8B7A-FB4B1EEF396A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{675B3595-04E0-43C1-A286-F460E4BD102A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>stops</t>
   </si>
@@ -33,21 +33,6 @@
     <t>BOM</t>
   </si>
   <si>
-    <t>1 Stop</t>
-  </si>
-  <si>
-    <t>New Delhi</t>
-  </si>
-  <si>
-    <t>2 Stop</t>
-  </si>
-  <si>
-    <t>0 Stop</t>
-  </si>
-  <si>
-    <t>JFK</t>
-  </si>
-  <si>
     <t>goingFrom</t>
   </si>
   <si>
@@ -55,6 +40,18 @@
   </si>
   <si>
     <t>depDate</t>
+  </si>
+  <si>
+    <t>CCU</t>
+  </si>
+  <si>
+    <t>BLR</t>
+  </si>
+  <si>
+    <t>2 Stop(s)</t>
+  </si>
+  <si>
+    <t>Non Stop</t>
   </si>
 </sst>
 </file>
@@ -62,7 +59,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="dd\/mm\/yyyy"/>
+    <numFmt numFmtId="164" formatCode="dd\/mm\/yyyy"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -93,10 +90,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -377,10 +373,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C5"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -393,13 +389,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
@@ -407,16 +403,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C2" s="1">
-        <v>45533</v>
+        <v>45353</v>
       </c>
       <c r="D2" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -424,41 +420,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1">
-        <v>45523</v>
+        <v>45414</v>
       </c>
       <c r="D3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="2">
-        <v>45505</v>
-      </c>
-      <c r="D4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="1">
-        <v>45519</v>
-      </c>
-      <c r="D5" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
